--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_17.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_17.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9994193702308115</v>
+        <v>0.9475723945377759</v>
       </c>
       <c r="C2" t="n">
-        <v>0.823075446219987</v>
+        <v>0.715622746982697</v>
       </c>
       <c r="D2" t="n">
-        <v>0.811636253631009</v>
+        <v>0.771060388707025</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9922863028917223</v>
+        <v>0.9390129916113291</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002416886915223029</v>
+        <v>0.1683076701905954</v>
       </c>
       <c r="G2" t="n">
-        <v>1.183095305789609</v>
+        <v>1.901632000363552</v>
       </c>
       <c r="H2" t="n">
-        <v>0.67376619880433</v>
+        <v>0.8189037149135934</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00711996339053275</v>
+        <v>0.3711819884734043</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1148536451573931</v>
+        <v>1.163220875858958</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04916184409908796</v>
+        <v>0.4102531781602617</v>
       </c>
       <c r="L2" t="n">
-        <v>1.037160305228063</v>
+        <v>0.9286092180939927</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04993609399983411</v>
+        <v>0.4167142556135639</v>
       </c>
       <c r="N2" t="n">
-        <v>142.0505499312055</v>
+        <v>37.56392320862104</v>
       </c>
       <c r="O2" t="n">
-        <v>283.3857224744219</v>
+        <v>74.52850679684687</v>
       </c>
     </row>
     <row r="3">
@@ -561,193 +561,193 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9994268654798222</v>
+        <v>0.9475407308086812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8230329927841415</v>
+        <v>0.7156145684710638</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8114276821932797</v>
+        <v>0.7713591777159614</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9926768522832399</v>
+        <v>0.9392102239163534</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002385687741116572</v>
+        <v>0.1684093198544794</v>
       </c>
       <c r="G3" t="n">
-        <v>1.183379192110587</v>
+        <v>1.901686690108502</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6745122467434208</v>
+        <v>0.81783496395341</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00675947511483728</v>
+        <v>0.3699815839757195</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1161371180455421</v>
+        <v>1.168078336938099</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04884350254759145</v>
+        <v>0.4103770459644148</v>
       </c>
       <c r="L3" t="n">
-        <v>1.036680609291381</v>
+        <v>0.9285661015267148</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04961273888712634</v>
+        <v>0.41684007421181</v>
       </c>
       <c r="N3" t="n">
-        <v>142.0765356703095</v>
+        <v>37.56271567030279</v>
       </c>
       <c r="O3" t="n">
-        <v>283.4117082135259</v>
+        <v>74.52729925852861</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_6</t>
+          <t>model_1_17_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999414678390959</v>
+        <v>0.9475074348694122</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8220151697736466</v>
+        <v>0.715605484590107</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8091884145867713</v>
+        <v>0.7716594308145124</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9941627667116772</v>
+        <v>0.9394087205966459</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002436416823866458</v>
+        <v>0.1685162093817762</v>
       </c>
       <c r="G4" t="n">
-        <v>1.190185379268411</v>
+        <v>1.901747434062288</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6825219771317054</v>
+        <v>0.8167609760295679</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005387933533228514</v>
+        <v>0.3687734841780249</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1271410904640194</v>
+        <v>1.172977968558747</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04936007317525429</v>
+        <v>0.4105072586225197</v>
       </c>
       <c r="L4" t="n">
-        <v>1.037460582978625</v>
+        <v>0.9285207623753698</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05013744498579369</v>
+        <v>0.4169723375891152</v>
       </c>
       <c r="N4" t="n">
-        <v>142.0344536676211</v>
+        <v>37.56144667141006</v>
       </c>
       <c r="O4" t="n">
-        <v>283.3696262108375</v>
+        <v>74.52603025963589</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_5</t>
+          <t>model_1_17_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9994157109745153</v>
+        <v>0.9474724984390681</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8220144407833663</v>
+        <v>0.7155954341453601</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8091801974566233</v>
+        <v>0.7719611754649665</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9943254580481937</v>
+        <v>0.9396085596307379</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002432118667246537</v>
+        <v>0.168628365356556</v>
       </c>
       <c r="G5" t="n">
-        <v>1.190190254029772</v>
+        <v>1.901814641432588</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6825513693297882</v>
+        <v>0.815681652911054</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005237764769314902</v>
+        <v>0.3675572144837301</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1280346255608537</v>
+        <v>1.177924010369875</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04931651515716147</v>
+        <v>0.4106438424676012</v>
       </c>
       <c r="L5" t="n">
-        <v>1.03739449763102</v>
+        <v>0.9284731893638374</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05009320097245794</v>
+        <v>0.417111072493223</v>
       </c>
       <c r="N5" t="n">
-        <v>142.0379850439411</v>
+        <v>37.56011601403254</v>
       </c>
       <c r="O5" t="n">
-        <v>283.3731575871574</v>
+        <v>74.52469960225835</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_17_7</t>
+          <t>model_1_17_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9994116015770207</v>
+        <v>0.9474358362145526</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8219798098182743</v>
+        <v>0.7155844385746004</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8091950919473763</v>
+        <v>0.7722643332703815</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9933144866184225</v>
+        <v>0.9398095090345734</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002449224144025595</v>
+        <v>0.1687460616262559</v>
       </c>
       <c r="G6" t="n">
-        <v>1.190421831452803</v>
+        <v>1.901888168864888</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6824980925999971</v>
+        <v>0.814597275019184</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006170920358367157</v>
+        <v>0.3663341868050669</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1212584071238791</v>
+        <v>1.182914026264335</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04948963673361924</v>
+        <v>0.4107871244650396</v>
       </c>
       <c r="L6" t="n">
-        <v>1.037657499070676</v>
+        <v>0.92842326633471</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05026904904068685</v>
+        <v>0.4172566110388916</v>
       </c>
       <c r="N6" t="n">
-        <v>142.0239679609716</v>
+        <v>37.55872057602584</v>
       </c>
       <c r="O6" t="n">
-        <v>283.3591405041881</v>
+        <v>74.52330416425167</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9993921927056005</v>
+        <v>0.9473974637064598</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8216365930893151</v>
+        <v>0.7155724474813224</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8077367312255334</v>
+        <v>0.7725686719053826</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9956838852189849</v>
+        <v>0.940011828756059</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002530014089467552</v>
+        <v>0.1688692483974146</v>
       </c>
       <c r="G7" t="n">
-        <v>1.192716923299721</v>
+        <v>1.901968353360852</v>
       </c>
       <c r="H7" t="n">
-        <v>0.687714564341416</v>
+        <v>0.8135086733683528</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003983897578398231</v>
+        <v>0.3651028190349045</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1372857245983214</v>
+        <v>1.187952658995754</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05029924541648267</v>
+        <v>0.4109370370232094</v>
       </c>
       <c r="L7" t="n">
-        <v>1.038899666841566</v>
+        <v>0.9283710144087963</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0510914082509936</v>
+        <v>0.417408884569995</v>
       </c>
       <c r="N7" t="n">
-        <v>141.9590608145974</v>
+        <v>37.55726108324849</v>
       </c>
       <c r="O7" t="n">
-        <v>283.2942333578138</v>
+        <v>74.52184467147431</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9993877214393971</v>
+        <v>0.9473572664934945</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8215804968334258</v>
+        <v>0.7155594377386905</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8075744250246351</v>
+        <v>0.7728744653176167</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9957724690808618</v>
+        <v>0.9402153118459537</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002548625854407617</v>
+        <v>0.1689982929952501</v>
       </c>
       <c r="G8" t="n">
-        <v>1.193092039221152</v>
+        <v>1.902055349569737</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6882951242109749</v>
+        <v>0.8124148680637122</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003902132136392558</v>
+        <v>0.3638643707174122</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1384067091438601</v>
+        <v>1.193035513973253</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05048391678948472</v>
+        <v>0.4110940196539596</v>
       </c>
       <c r="L8" t="n">
-        <v>1.039185827878583</v>
+        <v>0.9283162777783754</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0512789880135168</v>
+        <v>0.4175683395202544</v>
       </c>
       <c r="N8" t="n">
-        <v>141.9444018913692</v>
+        <v>37.55573332945979</v>
       </c>
       <c r="O8" t="n">
-        <v>283.2795744345856</v>
+        <v>74.52031691768562</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9993853950668933</v>
+        <v>0.9473152382862826</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8215534984111703</v>
+        <v>0.7155453968058458</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8074527376249163</v>
+        <v>0.7731816665111227</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9959017346563175</v>
+        <v>0.9404200128597574</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002558309442061606</v>
+        <v>0.1691332156104595</v>
       </c>
       <c r="G9" t="n">
-        <v>1.193272577795091</v>
+        <v>1.902149241352321</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6887303929839277</v>
+        <v>0.8113160272070898</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003782816307422221</v>
+        <v>0.3626185098143505</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1393955941797623</v>
+        <v>1.198162110882319</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05057973351117626</v>
+        <v>0.4112580888085479</v>
       </c>
       <c r="L9" t="n">
-        <v>1.03933471571883</v>
+        <v>0.9282590478791933</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05137631375279339</v>
+        <v>0.4177349926000186</v>
       </c>
       <c r="N9" t="n">
-        <v>141.9368172256569</v>
+        <v>37.55413723304244</v>
       </c>
       <c r="O9" t="n">
-        <v>283.2719897688733</v>
+        <v>74.51872082126826</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9993809490217109</v>
+        <v>0.9472713618206845</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8215169703176636</v>
+        <v>0.715530305751146</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8071811091161264</v>
+        <v>0.7734901529280289</v>
       </c>
       <c r="E10" t="n">
-        <v>0.996613663488313</v>
+        <v>0.9406260019479177</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002576816223828685</v>
+        <v>0.1692740716658886</v>
       </c>
       <c r="G10" t="n">
-        <v>1.193516841324567</v>
+        <v>1.902250155304586</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6897019924099437</v>
+        <v>0.8102125891808866</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003125685602220738</v>
+        <v>0.3613648093727763</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1421974796335548</v>
+        <v>1.203337869030066</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05076235045610758</v>
+        <v>0.4114293033631521</v>
       </c>
       <c r="L10" t="n">
-        <v>1.039619262610501</v>
+        <v>0.9281993012026342</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0515618067320574</v>
+        <v>0.417908903612706</v>
       </c>
       <c r="N10" t="n">
-        <v>141.9224013277046</v>
+        <v>37.55247230360552</v>
       </c>
       <c r="O10" t="n">
-        <v>283.257573870921</v>
+        <v>74.51705589183135</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999282386020388</v>
+        <v>0.9472255605873572</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8213143131688664</v>
+        <v>0.7155140816543799</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8058775693782622</v>
+        <v>0.7738001135249875</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9965995375531939</v>
+        <v>0.9408332508597027</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002987087348155507</v>
+        <v>0.169421106778502</v>
       </c>
       <c r="G11" t="n">
-        <v>1.194872010611724</v>
+        <v>1.902358645914366</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6943646784687072</v>
+        <v>0.8091038780981139</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003138724244974474</v>
+        <v>0.3601034413336183</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1530966576358984</v>
+        <v>1.208558409552376</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05465425279111871</v>
+        <v>0.4116079527639159</v>
       </c>
       <c r="L11" t="n">
-        <v>1.045927294695169</v>
+        <v>0.928136933565763</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05551500263836994</v>
+        <v>0.4180903665629479</v>
       </c>
       <c r="N11" t="n">
-        <v>141.6269129948104</v>
+        <v>37.55073581450018</v>
       </c>
       <c r="O11" t="n">
-        <v>282.9620855380268</v>
+        <v>74.51531940272599</v>
       </c>
     </row>
   </sheetData>
